--- a/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV_BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>msg</t>
   </si>
@@ -162,57 +162,6 @@
     <t>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles</t>
   </si>
   <si>
-    <t>201704_ATLTC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_CALGY_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_EDMON_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_LONDN_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_MEDIC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_MNTRL_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_NWFLD_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_OTTWA_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_PRAIR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_QUEBC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_TORNT1_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_TORNT2_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_TORNT3_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_TORNT4_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_TORNT5_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_VACVR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201704_VICTR_FSCBook.pdf</t>
-  </si>
-  <si>
     <t>Christian.Marsolais@henryschein.ca,Filomena.Cotoia@henryschein.ca,Frederic.Gagnon@henryschein.ca,Jacquie.Russo@henryschein.ca,Paul.Juhos@henryschein.ca,Yves.Trepanier@henryschein.ca</t>
   </si>
   <si>
@@ -222,12 +171,6 @@
     <t>Danelle.Fulawka@henryschein.ca,Greg.Christensen@henryschein.ca,Jacquie.Russo@henryschein.ca,Dan.Allery@henryschein.ca</t>
   </si>
   <si>
-    <t>Dean.Pollard@henryschein.ca,Jacquie.Russo@henryschein.ca,Josee.Cherfan@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jacquie.Russo@henryschein.ca,Marc.Zdrojewski@henryschein.com</t>
-  </si>
-  <si>
     <t>Audrey.Wiens@henryschein.ca,Jacquie.Russo@henryschein.ca,Renata.Kruja@henryschein.ca</t>
   </si>
   <si>
@@ -237,9 +180,6 @@
     <t>Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Marc.Zdrojewski@henryschein.com,Shawn.Altro@henryschein.ca</t>
   </si>
   <si>
-    <t>David.Haskins@henryschein.ca,Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Prashant.Ohri@henryschein.ca,Adam.Jones@henryschein.ca</t>
-  </si>
-  <si>
     <t>Glenn.Turko@Henryschein.ca,Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Prashant.Ohri@henryschein.ca,Adam.Jones@henryschein.ca</t>
   </si>
   <si>
@@ -247,6 +187,72 @@
   </si>
   <si>
     <t>Alain.Maranda@henryschein.ca,Christian.Marsolais@henryschein.ca,Jacquie.Russo@henryschein.ca,Paul.Juhos@henryschein.ca,Yves.Trepanier@henryschein.ca,Jean-Francois.Carmichael@henryschein.ca</t>
+  </si>
+  <si>
+    <t>ETU_MSG_FSC_Sales_Mgr.htm</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>Jacquie.Russo@henryschein.ca,Marc.Zdrojewski@henryschein.com,Bill.Dowe@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Prashant.Ohri@henryschein.ca,Adam.Jones@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dean.Pollard@henryschein.ca,Jacquie.Russo@henryschein.ca,Josee.Cherfan@henryschein.ca,Murray.Johnson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201709_ATLTC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_CALGY_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_EDMON_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_LONDN_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_MEDIC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_MNTRL_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_NWFLD_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_OTTWA_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_PRAIR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_QUEBC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_TORNT1_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_TORNT2_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_TORNT3_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_TORNT4_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_TORNT5_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_VACVR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201709_VICTR_FSCBook.pdf</t>
   </si>
 </sst>
 </file>
@@ -602,7 +608,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="181.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.28515625" customWidth="1"/>
     <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
@@ -640,6 +646,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
@@ -656,6 +665,9 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
       <c r="D2" t="str">
         <f>D3</f>
         <v>Weekly FSC Sales Branch Book - ATLTC</v>
@@ -668,14 +680,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K2" t="s">
         <v>46</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201704_ATLTC_FSCBook.pdf</v>
+        <v>201709_ATLTC_FSCBook.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -683,7 +695,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -696,13 +711,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K3" t="s">
         <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -710,7 +725,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -723,13 +741,13 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_CALGY_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CALGY_FSCBook.pdf</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -737,7 +755,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -750,13 +771,13 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_EDMON_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_EDMON_FSCBook.pdf</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -764,7 +785,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -777,13 +801,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_LONDN_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_LONDN_FSCBook.pdf</v>
       </c>
       <c r="K6" t="s">
         <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -791,7 +815,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -804,13 +831,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_MEDIC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_MEDIC_FSCBook.pdf</v>
       </c>
       <c r="K7" t="s">
         <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -818,7 +845,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -831,13 +861,13 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_MNTRL_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_MNTRL_FSCBook.pdf</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -845,7 +875,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -858,13 +891,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_NWFLD_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_NWFLD_FSCBook.pdf</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -872,7 +905,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -885,13 +921,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_OTTWA_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_OTTWA_FSCBook.pdf</v>
       </c>
       <c r="K10" t="s">
         <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -899,7 +935,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -912,13 +951,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_PRAIR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_PRAIR_FSCBook.pdf</v>
       </c>
       <c r="K11" t="s">
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -926,7 +965,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -939,13 +981,13 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_QUEBC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QUEBC_FSCBook.pdf</v>
       </c>
       <c r="K12" t="s">
         <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -953,7 +995,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -966,13 +1011,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_TORNT1_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT1_FSCBook.pdf</v>
       </c>
       <c r="K13" t="s">
         <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -980,7 +1025,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
@@ -993,13 +1041,13 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_TORNT2_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT2_FSCBook.pdf</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1007,7 +1055,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>42</v>
@@ -1020,13 +1071,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_TORNT3_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT3_FSCBook.pdf</v>
       </c>
       <c r="K15" t="s">
         <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1034,7 +1085,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
@@ -1047,13 +1101,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_TORNT4_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT4_FSCBook.pdf</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1061,7 +1115,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
@@ -1074,13 +1131,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_TORNT5_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT5_FSCBook.pdf</v>
       </c>
       <c r="K17" t="s">
         <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1088,7 +1145,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
@@ -1101,13 +1161,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G19" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_VACVR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_VACVR_FSCBook.pdf</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,7 +1175,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>45</v>
@@ -1128,13 +1191,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201704_VICTR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_VICTR_FSCBook.pdf</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,12 +159,6 @@
     <t>Weekly FSC Sales Branch Book - VICTR</t>
   </si>
   <si>
-    <t>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles</t>
-  </si>
-  <si>
-    <t>Christian.Marsolais@henryschein.ca,Filomena.Cotoia@henryschein.ca,Frederic.Gagnon@henryschein.ca,Jacquie.Russo@henryschein.ca,Paul.Juhos@henryschein.ca,Yves.Trepanier@henryschein.ca</t>
-  </si>
-  <si>
     <t>Jacquie.Russo@henryschein.ca,Scott.Thornton@henryschein.ca</t>
   </si>
   <si>
@@ -177,18 +171,12 @@
     <t>Jacquie.Russo@henryschein.ca,Scott.Kennedy@henryschein.ca,Marc.Zdrojewski@henryschein.com</t>
   </si>
   <si>
-    <t>Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Marc.Zdrojewski@henryschein.com,Shawn.Altro@henryschein.ca</t>
-  </si>
-  <si>
     <t>Glenn.Turko@Henryschein.ca,Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Prashant.Ohri@henryschein.ca,Adam.Jones@henryschein.ca</t>
   </si>
   <si>
     <t>Jacquie.Russo@henryschein.ca,Kevin.Riley@Henryschein.ca</t>
   </si>
   <si>
-    <t>Alain.Maranda@henryschein.ca,Christian.Marsolais@henryschein.ca,Jacquie.Russo@henryschein.ca,Paul.Juhos@henryschein.ca,Yves.Trepanier@henryschein.ca,Jean-Francois.Carmichael@henryschein.ca</t>
-  </si>
-  <si>
     <t>ETU_MSG_FSC_Sales_Mgr.htm</t>
   </si>
   <si>
@@ -204,55 +192,67 @@
     <t>Dean.Pollard@henryschein.ca,Jacquie.Russo@henryschein.ca,Josee.Cherfan@henryschein.ca,Murray.Johnson@henryschein.ca</t>
   </si>
   <si>
-    <t>201709_ATLTC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_CALGY_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_EDMON_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_LONDN_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_MEDIC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_MNTRL_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_NWFLD_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_OTTWA_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_PRAIR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_QUEBC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_TORNT1_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_TORNT2_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_TORNT3_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_TORNT4_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_TORNT5_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_VACVR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201709_VICTR_FSCBook.pdf</t>
+    <t>Alain.Maranda@henryschein.ca,Christian.Marsolais@henryschein.ca,Jacquie.Russo@henryschein.ca,Yves.Trepanier@henryschein.ca,Jean-Francois.Carmichael@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Christian.Marsolais@henryschein.ca,Frederic.Gagnon@henryschein.ca,Jacquie.Russo@henryschein.ca,Yves.Trepanier@henryschein.ca</t>
+  </si>
+  <si>
+    <t>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send</t>
+  </si>
+  <si>
+    <t>Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Marc.Zdrojewski@henryschein.com</t>
+  </si>
+  <si>
+    <t>201711_ATLTC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_CALGY_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_EDMON_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_LONDN_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_MEDIC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_MNTRL_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_NWFLD_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_OTTWA_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_PRAIR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_QUEBC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_TORNT1_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_TORNT2_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_TORNT3_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_TORNT4_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_TORNT5_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_VACVR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201711_VICTR_FSCBook.pdf</t>
   </si>
 </sst>
 </file>
@@ -608,10 +608,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="9" width="3.28515625" customWidth="1"/>
     <col min="11" max="11" width="6.140625" customWidth="1"/>
     <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -666,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
@@ -680,14 +680,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201709_ATLTC_FSCBook.pdf</v>
+        <v>201711_ATLTC_FSCBook.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -695,10 +695,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -711,10 +711,10 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -725,10 +725,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -741,10 +741,10 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_CALGY_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CALGY_FSCBook.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>62</v>
@@ -755,10 +755,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -771,10 +771,10 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_EDMON_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_EDMON_FSCBook.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>63</v>
@@ -785,10 +785,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -801,10 +801,10 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_LONDN_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_LONDN_FSCBook.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>64</v>
@@ -815,10 +815,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -831,10 +831,10 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_MEDIC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_MEDIC_FSCBook.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>65</v>
@@ -845,10 +845,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -861,10 +861,10 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_MNTRL_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_MNTRL_FSCBook.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -875,10 +875,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -891,10 +891,10 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_NWFLD_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_NWFLD_FSCBook.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>67</v>
@@ -905,10 +905,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -921,10 +921,10 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_OTTWA_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_OTTWA_FSCBook.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -935,10 +935,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -951,10 +951,10 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_PRAIR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_PRAIR_FSCBook.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>69</v>
@@ -965,10 +965,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -981,10 +981,10 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_QUEBC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QUEBC_FSCBook.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
         <v>70</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -1011,10 +1011,10 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT1_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT1_FSCBook.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
         <v>71</v>
@@ -1025,10 +1025,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
@@ -1041,10 +1041,10 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT2_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT2_FSCBook.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
         <v>72</v>
@@ -1055,10 +1055,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>42</v>
@@ -1071,10 +1071,10 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT3_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT3_FSCBook.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s">
         <v>73</v>
@@ -1085,10 +1085,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
@@ -1101,10 +1101,10 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT4_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT4_FSCBook.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L16" t="s">
         <v>74</v>
@@ -1115,10 +1115,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
@@ -1131,10 +1131,10 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_TORNT5_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT5_FSCBook.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
         <v>75</v>
@@ -1145,10 +1145,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
@@ -1161,10 +1161,10 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G19" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_VACVR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_VACVR_FSCBook.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L18" t="s">
         <v>76</v>
@@ -1175,10 +1175,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>45</v>
@@ -1191,10 +1191,10 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\DailySales_to_be_moved\Daily Sales Reporting\Sendfiles\201709_VICTR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_VICTR_FSCBook.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L19" t="s">
         <v>77</v>
@@ -1216,7 +1216,7 @@
     <hyperlink ref="B12" r:id="rId12"/>
     <hyperlink ref="B13" r:id="rId13"/>
     <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B14:B17" r:id="rId15" display="Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Marc.Zdrojewski@henryschein.com,Shawn.Altro@henryschein.ca"/>
+    <hyperlink ref="B14:B17" r:id="rId15" display="Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Marc.Zdrojewski@henryschein.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,55 +204,55 @@
     <t>Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Marc.Zdrojewski@henryschein.com</t>
   </si>
   <si>
-    <t>201711_ATLTC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_CALGY_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_EDMON_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_LONDN_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_MEDIC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_MNTRL_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_NWFLD_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_OTTWA_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_PRAIR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_QUEBC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_TORNT1_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_TORNT2_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_TORNT3_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_TORNT4_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_TORNT5_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_VACVR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201711_VICTR_FSCBook.pdf</t>
+    <t>201712_ATLTC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_CALGY_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_EDMON_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_LONDN_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_MEDIC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_MNTRL_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_NWFLD_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_OTTWA_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_PRAIR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_QUEBC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_TORNT1_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_TORNT2_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_TORNT3_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_TORNT4_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_TORNT5_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_VACVR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201712_VICTR_FSCBook.pdf</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -680,14 +682,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K2" t="s">
         <v>59</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201711_ATLTC_FSCBook.pdf</v>
+        <v>201712_ATLTC_FSCBook.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -711,7 +713,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K3" t="s">
         <v>59</v>
@@ -741,7 +743,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_CALGY_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CALGY_FSCBook.pdf</v>
       </c>
       <c r="K4" t="s">
         <v>59</v>
@@ -771,7 +773,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_EDMON_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_EDMON_FSCBook.pdf</v>
       </c>
       <c r="K5" t="s">
         <v>59</v>
@@ -801,7 +803,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_LONDN_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_LONDN_FSCBook.pdf</v>
       </c>
       <c r="K6" t="s">
         <v>59</v>
@@ -831,7 +833,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_MEDIC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_MEDIC_FSCBook.pdf</v>
       </c>
       <c r="K7" t="s">
         <v>59</v>
@@ -861,7 +863,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_MNTRL_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_MNTRL_FSCBook.pdf</v>
       </c>
       <c r="K8" t="s">
         <v>59</v>
@@ -891,7 +893,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_NWFLD_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_NWFLD_FSCBook.pdf</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
@@ -921,7 +923,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_OTTWA_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_OTTWA_FSCBook.pdf</v>
       </c>
       <c r="K10" t="s">
         <v>59</v>
@@ -951,7 +953,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_PRAIR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_PRAIR_FSCBook.pdf</v>
       </c>
       <c r="K11" t="s">
         <v>59</v>
@@ -981,7 +983,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_QUEBC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QUEBC_FSCBook.pdf</v>
       </c>
       <c r="K12" t="s">
         <v>59</v>
@@ -1011,7 +1013,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT1_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT1_FSCBook.pdf</v>
       </c>
       <c r="K13" t="s">
         <v>59</v>
@@ -1041,7 +1043,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT2_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT2_FSCBook.pdf</v>
       </c>
       <c r="K14" t="s">
         <v>59</v>
@@ -1071,7 +1073,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT3_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT3_FSCBook.pdf</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -1101,7 +1103,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT4_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT4_FSCBook.pdf</v>
       </c>
       <c r="K16" t="s">
         <v>59</v>
@@ -1131,7 +1133,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_TORNT5_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT5_FSCBook.pdf</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
@@ -1161,7 +1163,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G19" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_VACVR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_VACVR_FSCBook.pdf</v>
       </c>
       <c r="K18" t="s">
         <v>59</v>
@@ -1191,7 +1193,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201711_VICTR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_VICTR_FSCBook.pdf</v>
       </c>
       <c r="K19" t="s">
         <v>59</v>

--- a/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
@@ -171,9 +171,6 @@
     <t>Jacquie.Russo@henryschein.ca,Scott.Kennedy@henryschein.ca,Marc.Zdrojewski@henryschein.com</t>
   </si>
   <si>
-    <t>Glenn.Turko@Henryschein.ca,Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Prashant.Ohri@henryschein.ca,Adam.Jones@henryschein.ca</t>
-  </si>
-  <si>
     <t>Jacquie.Russo@henryschein.ca,Kevin.Riley@Henryschein.ca</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Jacquie.Russo@henryschein.ca,Marc.Zdrojewski@henryschein.com,Bill.Dowe@henryschein.ca</t>
   </si>
   <si>
-    <t>Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Prashant.Ohri@henryschein.ca,Adam.Jones@henryschein.ca</t>
-  </si>
-  <si>
     <t>Dean.Pollard@henryschein.ca,Jacquie.Russo@henryschein.ca,Josee.Cherfan@henryschein.ca,Murray.Johnson@henryschein.ca</t>
   </si>
   <si>
@@ -253,6 +247,12 @@
   </si>
   <si>
     <t>201712_VICTR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Adam.Jones@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Glenn.Turko@Henryschein.ca,Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Adam.Jones@henryschein.ca</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
@@ -685,7 +685,7 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
@@ -700,7 +700,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -716,10 +716,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -746,10 +746,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CALGY_FSCBook.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -776,10 +776,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_EDMON_FSCBook.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -806,10 +806,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_LONDN_FSCBook.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -836,10 +836,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_MEDIC_FSCBook.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -866,10 +866,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_MNTRL_FSCBook.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -896,10 +896,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_NWFLD_FSCBook.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -926,10 +926,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_OTTWA_FSCBook.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -937,10 +937,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -956,10 +956,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_PRAIR_FSCBook.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -967,10 +967,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -986,10 +986,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QUEBC_FSCBook.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -997,10 +997,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -1016,10 +1016,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT1_FSCBook.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
@@ -1046,10 +1046,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT2_FSCBook.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1057,10 +1057,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>42</v>
@@ -1076,10 +1076,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT3_FSCBook.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1087,10 +1087,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
@@ -1106,10 +1106,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT4_FSCBook.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1117,10 +1117,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
@@ -1136,10 +1136,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT5_FSCBook.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
@@ -1166,10 +1166,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_VACVR_FSCBook.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1177,10 +1177,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>45</v>
@@ -1196,10 +1196,10 @@
         <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_VICTR_FSCBook.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -168,9 +168,6 @@
     <t>Audrey.Wiens@henryschein.ca,Jacquie.Russo@henryschein.ca,Renata.Kruja@henryschein.ca</t>
   </si>
   <si>
-    <t>Jacquie.Russo@henryschein.ca,Scott.Kennedy@henryschein.ca,Marc.Zdrojewski@henryschein.com</t>
-  </si>
-  <si>
     <t>Jacquie.Russo@henryschein.ca,Kevin.Riley@Henryschein.ca</t>
   </si>
   <si>
@@ -180,86 +177,89 @@
     <t>blank</t>
   </si>
   <si>
-    <t>Jacquie.Russo@henryschein.ca,Marc.Zdrojewski@henryschein.com,Bill.Dowe@henryschein.ca</t>
-  </si>
-  <si>
     <t>Dean.Pollard@henryschein.ca,Jacquie.Russo@henryschein.ca,Josee.Cherfan@henryschein.ca,Murray.Johnson@henryschein.ca</t>
   </si>
   <si>
-    <t>Alain.Maranda@henryschein.ca,Christian.Marsolais@henryschein.ca,Jacquie.Russo@henryschein.ca,Yves.Trepanier@henryschein.ca,Jean-Francois.Carmichael@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Christian.Marsolais@henryschein.ca,Frederic.Gagnon@henryschein.ca,Jacquie.Russo@henryschein.ca,Yves.Trepanier@henryschein.ca</t>
-  </si>
-  <si>
     <t>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send</t>
   </si>
   <si>
-    <t>Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Marc.Zdrojewski@henryschein.com</t>
-  </si>
-  <si>
-    <t>201712_ATLTC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_CALGY_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_EDMON_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_LONDN_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_MEDIC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_MNTRL_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_NWFLD_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_OTTWA_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_PRAIR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_QUEBC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_TORNT1_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_TORNT2_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_TORNT3_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_TORNT4_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_TORNT5_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_VACVR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201712_VICTR_FSCBook.pdf</t>
-  </si>
-  <si>
     <t>Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Adam.Jones@henryschein.ca</t>
   </si>
   <si>
     <t>Glenn.Turko@Henryschein.ca,Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Adam.Jones@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201801_ATLTC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_CALGY_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_EDMON_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_LONDN_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_MEDIC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_MNTRL_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_NWFLD_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_OTTWA_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_PRAIR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_QUEBC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_TORNT1_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_TORNT2_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_TORNT3_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_TORNT4_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_TORNT5_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_VACVR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201801_VICTR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Anthony.Archer@henryschein.com</t>
+  </si>
+  <si>
+    <t>Jacquie.Russo@henryschein.ca,Scott.Kennedy@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jacquie.Russo@henryschein.ca,Bill.Dowe@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Christian.Marsolais@henryschein.ca,Frederic.Gagnon@henryschein.ca,Jacquie.Russo@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Alain.Maranda@henryschein.ca,Christian.Marsolais@henryschein.ca,Jacquie.Russo@henryschein.ca,Jean-Francois.Carmichael@henryschein.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,16 +320,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -610,7 +621,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
@@ -649,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>11</v>
@@ -668,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
@@ -682,14 +693,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201712_ATLTC_FSCBook.pdf</v>
+        <v>201801_ATLTC_FSCBook.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -700,7 +711,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -713,13 +724,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -730,7 +741,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -743,13 +754,13 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_CALGY_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CALGY_FSCBook.pdf</v>
       </c>
       <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -757,10 +768,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -773,24 +784,24 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_EDMON_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_EDMON_FSCBook.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -803,13 +814,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_LONDN_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_LONDN_FSCBook.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -820,7 +831,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -833,24 +844,24 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_MEDIC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_MEDIC_FSCBook.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
+      <c r="B8" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -863,13 +874,13 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_MNTRL_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_MNTRL_FSCBook.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -880,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -893,24 +904,24 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_NWFLD_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_NWFLD_FSCBook.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -923,13 +934,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_OTTWA_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_OTTWA_FSCBook.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -937,10 +948,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -953,24 +964,24 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_PRAIR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_PRAIR_FSCBook.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -983,24 +994,24 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_QUEBC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QUEBC_FSCBook.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>58</v>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -1013,24 +1024,24 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT1_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT1_FSCBook.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
@@ -1043,24 +1054,24 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT2_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT2_FSCBook.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>42</v>
@@ -1073,24 +1084,24 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT3_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT3_FSCBook.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
@@ -1103,24 +1114,24 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT4_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT4_FSCBook.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
+      <c r="B17" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
@@ -1133,13 +1144,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_TORNT5_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT5_FSCBook.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1147,10 +1158,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
@@ -1163,13 +1174,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G19" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_VACVR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_VACVR_FSCBook.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1177,10 +1188,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>45</v>
@@ -1193,13 +1204,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201712_VICTR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_VICTR_FSCBook.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1229,7 @@
     <hyperlink ref="B12" r:id="rId12"/>
     <hyperlink ref="B13" r:id="rId13"/>
     <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B14:B17" r:id="rId15" display="Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Marc.Zdrojewski@henryschein.com"/>
+    <hyperlink ref="B14:B17" r:id="rId15" display="Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Anthony.Archer@henryschein.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,57 +189,6 @@
     <t>Glenn.Turko@Henryschein.ca,Jacquie.Russo@henryschein.ca,John.Meredith@henryschein.ca,Adam.Jones@henryschein.ca</t>
   </si>
   <si>
-    <t>201801_ATLTC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_CALGY_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_EDMON_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_LONDN_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_MEDIC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_MNTRL_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_NWFLD_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_OTTWA_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_PRAIR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_QUEBC_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_TORNT1_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_TORNT2_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_TORNT3_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_TORNT4_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_TORNT5_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_VACVR_FSCBook.pdf</t>
-  </si>
-  <si>
-    <t>201801_VICTR_FSCBook.pdf</t>
-  </si>
-  <si>
     <t>Jacquie.Russo@henryschein.ca,Jason.Brown@henryschein.ca,Jason.Schuler@henryschein.com,Anthony.Archer@henryschein.com</t>
   </si>
   <si>
@@ -253,6 +202,57 @@
   </si>
   <si>
     <t>Alain.Maranda@henryschein.ca,Christian.Marsolais@henryschein.ca,Jacquie.Russo@henryschein.ca,Jean-Francois.Carmichael@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201802_ATLTC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_CALGY_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_EDMON_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_LONDN_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_MEDIC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_MNTRL_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_NWFLD_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_OTTWA_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_PRAIR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_QUEBC_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_TORNT1_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_TORNT2_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_TORNT3_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_TORNT4_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_TORNT5_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_VACVR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>201802_VICTR_FSCBook.pdf</t>
   </si>
 </sst>
 </file>
@@ -615,9 +615,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -693,14 +691,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K2" t="s">
         <v>53</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201801_ATLTC_FSCBook.pdf</v>
+        <v>201802_ATLTC_FSCBook.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -724,13 +722,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_ATLTC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_ATLTC_FSCBook.pdf</v>
       </c>
       <c r="K3" t="s">
         <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -754,13 +752,13 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_CALGY_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_CALGY_FSCBook.pdf</v>
       </c>
       <c r="K4" t="s">
         <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -784,13 +782,13 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_EDMON_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_EDMON_FSCBook.pdf</v>
       </c>
       <c r="K5" t="s">
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -798,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -814,13 +812,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_LONDN_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_LONDN_FSCBook.pdf</v>
       </c>
       <c r="K6" t="s">
         <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -844,13 +842,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_MEDIC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_MEDIC_FSCBook.pdf</v>
       </c>
       <c r="K7" t="s">
         <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -858,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -874,13 +872,13 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_MNTRL_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_MNTRL_FSCBook.pdf</v>
       </c>
       <c r="K8" t="s">
         <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -904,13 +902,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_NWFLD_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_NWFLD_FSCBook.pdf</v>
       </c>
       <c r="K9" t="s">
         <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -918,7 +916,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -934,13 +932,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_OTTWA_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_OTTWA_FSCBook.pdf</v>
       </c>
       <c r="K10" t="s">
         <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -964,13 +962,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_PRAIR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_PRAIR_FSCBook.pdf</v>
       </c>
       <c r="K11" t="s">
         <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -978,7 +976,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -994,13 +992,13 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_QUEBC_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_QUEBC_FSCBook.pdf</v>
       </c>
       <c r="K12" t="s">
         <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1008,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -1024,13 +1022,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT1_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_TORNT1_FSCBook.pdf</v>
       </c>
       <c r="K13" t="s">
         <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1038,7 +1036,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1054,13 +1052,13 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT2_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_TORNT2_FSCBook.pdf</v>
       </c>
       <c r="K14" t="s">
         <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1068,7 +1066,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -1084,13 +1082,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT3_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_TORNT3_FSCBook.pdf</v>
       </c>
       <c r="K15" t="s">
         <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1098,7 +1096,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -1114,13 +1112,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT4_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_TORNT4_FSCBook.pdf</v>
       </c>
       <c r="K16" t="s">
         <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1128,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -1144,13 +1142,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_TORNT5_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_TORNT5_FSCBook.pdf</v>
       </c>
       <c r="K17" t="s">
         <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1174,13 +1172,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G19" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_VACVR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_VACVR_FSCBook.pdf</v>
       </c>
       <c r="K18" t="s">
         <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1204,13 +1202,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201801_VICTR_FSCBook.pdf</v>
+        <v>S:\Business Reporting\RegularReports\Weekly\Weekly FSC Reports\Send\201802_VICTR_FSCBook.pdf</v>
       </c>
       <c r="K19" t="s">
         <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J020_DS_FSC_BR/J020_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J020_DS_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,9 +201,6 @@
     <t>Christian.Marsolais@henryschein.ca,Frederic.Gagnon@henryschein.ca,Jacquie.Russo@henryschein.ca</t>
   </si>
   <si>
-    <t>Alain.Maranda@henryschein.ca,Christian.Marsolais@henryschein.ca,Jacquie.Russo@henryschein.ca,Jean-Francois.Carmichael@henryschein.ca</t>
-  </si>
-  <si>
     <t>201802_ATLTC_FSCBook.pdf</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>201802_VICTR_FSCBook.pdf</t>
+  </si>
+  <si>
+    <t>Christian.Marsolais@henryschein.ca,Jacquie.Russo@henryschein.ca,Jean-Francois.Carmichael@henryschein.ca</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -728,7 +730,7 @@
         <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -758,7 +760,7 @@
         <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -788,7 +790,7 @@
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -818,7 +820,7 @@
         <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -848,7 +850,7 @@
         <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -878,7 +880,7 @@
         <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -908,7 +910,7 @@
         <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -938,7 +940,7 @@
         <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -968,7 +970,7 @@
         <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -976,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -998,7 +1000,7 @@
         <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1028,7 +1030,7 @@
         <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1058,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1088,7 +1090,7 @@
         <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1118,7 +1120,7 @@
         <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,7 +1150,7 @@
         <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1178,7 +1180,7 @@
         <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1208,7 +1210,7 @@
         <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
